--- a/その他/設計書.xlsx
+++ b/その他/設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="136">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -1055,6 +1055,76 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面から災害ページへの遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページから各タブ（過去投稿、過去画像、アカウント管理）への遷移</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定モーダルから各ページへの遷移</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※このページではメイン画面からボタンを押していますが、設定ボタンは複数のページに（メイン画面、マイページ）実装されています。</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1388,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,6 +1601,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,11 +1619,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1555,29 +1643,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1780,6 +1853,44 @@
         <a:xfrm>
           <a:off x="716280" y="25001220"/>
           <a:ext cx="7978140" cy="4587241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>689265</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="689265" y="30761940"/>
+          <a:ext cx="7997536" cy="4693920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2233,21 +2344,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -2285,7 +2396,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2308,7 +2419,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2440,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="51"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2352,11 +2463,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -2381,7 +2492,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="51" t="s">
         <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2404,7 +2515,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2527,7 @@
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,15 +2536,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="51"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2452,7 +2563,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="51" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2475,7 +2586,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="51"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2487,7 +2598,7 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="51" t="s">
         <v>124</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2498,15 +2609,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2525,7 +2636,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2546,7 +2657,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="51" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2569,7 +2680,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2625,11 +2736,11 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
@@ -2679,27 +2790,27 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
@@ -2745,11 +2856,11 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
@@ -2784,11 +2895,11 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
@@ -2812,11 +2923,11 @@
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
@@ -2843,6 +2954,14 @@
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
@@ -2851,14 +2970,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2870,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -2880,17 +2991,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -2909,36 +3020,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3261,50 +3372,50 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3486,36 +3597,36 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60" t="s">
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="61"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57" t="s">
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="58"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3685,50 +3796,50 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60" t="s">
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="61"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="58"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3911,17 +4022,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -3938,6 +4038,17 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3947,10 +4058,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A117" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A59" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4056,7 +4167,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" s="63"/>
       <c r="C79" s="63"/>
@@ -4088,7 +4199,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B105" s="63"/>
       <c r="C105" s="63"/>
@@ -4118,8 +4229,57 @@
       <c r="L106" s="63"/>
       <c r="M106" s="63"/>
     </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A131" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="63"/>
+      <c r="L131" s="63"/>
+      <c r="M131" s="63"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A132" s="63"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="63"/>
+      <c r="L132" s="63"/>
+      <c r="M132" s="63"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="64"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="64"/>
+      <c r="I133" s="64"/>
+      <c r="J133" s="64"/>
+      <c r="K133" s="64"/>
+      <c r="L133" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A131:M132"/>
+    <mergeCell ref="B133:L133"/>
     <mergeCell ref="A27:M28"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A53:M54"/>
@@ -4137,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:M1048576"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4147,58 +4307,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/その他/設計書.xlsx
+++ b/その他/設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\その他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1601,23 +1601,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1627,21 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1712,44 +1712,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731521" y="7612381"/>
-          <a:ext cx="7970519" cy="3017520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1768,7 +1730,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1806,7 +1768,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1844,7 +1806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1882,7 +1844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1891,6 +1853,44 @@
         <a:xfrm>
           <a:off x="689265" y="30761940"/>
           <a:ext cx="7997536" cy="4693920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247031</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464820" y="7589520"/>
+          <a:ext cx="8469011" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,21 +2344,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -2396,7 +2396,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2419,7 +2419,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2463,11 +2463,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2515,7 +2515,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="52"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2536,15 +2536,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="49" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2586,7 +2586,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="49" t="s">
         <v>124</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2609,15 +2609,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="49" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2680,7 +2680,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="53"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2736,11 +2736,11 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
@@ -2790,27 +2790,27 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
@@ -2856,11 +2856,11 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
@@ -2895,11 +2895,11 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
@@ -2923,11 +2923,11 @@
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
@@ -2954,6 +2954,14 @@
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="H1:K1"/>
@@ -2962,14 +2970,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,17 +2991,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -3020,36 +3020,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3372,50 +3372,50 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55" t="s">
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3597,36 +3597,36 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55" t="s">
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58" t="s">
+      <c r="C37" s="57"/>
+      <c r="D37" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,50 +3796,50 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55" t="s">
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="56"/>
+      <c r="H49" s="61"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -4022,6 +4022,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -4038,17 +4049,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4060,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A59" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M133" sqref="M133"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4307,51 +4307,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/その他/設計書.xlsx
+++ b/その他/設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\その他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1601,6 +1601,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,35 +1619,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,44 +1675,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="1699261"/>
-          <a:ext cx="7947660" cy="2506980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1730,7 +1692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1768,7 +1730,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1806,7 +1768,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1844,7 +1806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1882,7 +1844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1891,6 +1853,44 @@
         <a:xfrm>
           <a:off x="464820" y="7589520"/>
           <a:ext cx="8469011" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739141" y="1661160"/>
+          <a:ext cx="7978140" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,21 +2344,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -2396,7 +2396,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2419,7 +2419,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="51"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2463,11 +2463,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="51" t="s">
         <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2515,7 +2515,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2536,15 +2536,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="51"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="51" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2586,7 +2586,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="51"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="51" t="s">
         <v>124</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2609,15 +2609,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="51" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2680,7 +2680,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2736,11 +2736,11 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
@@ -2790,27 +2790,27 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
@@ -2856,11 +2856,11 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
@@ -2895,11 +2895,11 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
@@ -2923,11 +2923,11 @@
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
@@ -2954,6 +2954,14 @@
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
@@ -2962,14 +2970,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,17 +2991,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -3020,36 +3020,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3372,50 +3372,50 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3597,36 +3597,36 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60" t="s">
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="61"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57" t="s">
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="58"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,50 +3796,50 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60" t="s">
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="61"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="58"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -4022,17 +4022,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -4049,6 +4038,17 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4060,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A157" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4307,51 +4307,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/その他/設計書.xlsx
+++ b/その他/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\その他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="IFDAM図" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$H$1:$K$30</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -631,12 +631,6 @@
     <t>投稿マスタ</t>
   </si>
   <si>
-    <t>タグマスタ</t>
-  </si>
-  <si>
-    <t>投稿タグマスタ</t>
-  </si>
-  <si>
     <t>アカウントID</t>
   </si>
   <si>
@@ -695,9 +689,6 @@
     <t>種別</t>
   </si>
   <si>
-    <t>アカウントマスタ</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
@@ -725,9 +716,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>ユーザー識別　ユニーク制約</t>
   </si>
   <si>
@@ -776,13 +764,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>投稿識別　</t>
-  </si>
-  <si>
     <t>contents</t>
-  </si>
-  <si>
-    <t>200字以内</t>
   </si>
   <si>
     <t>acount_id</t>
@@ -1126,6 +1108,114 @@
     <rPh sb="53" eb="55">
       <t>ジッソウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿識別ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>投稿内容　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>字以内</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿タグテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1458,7 +1548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,29 +1685,47 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1628,21 +1736,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1651,6 +1744,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2274,41 +2391,41 @@
       <selection activeCell="A15" sqref="A15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2332,39 +2449,39 @@
       <selection activeCell="H3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.625" customWidth="1"/>
     <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.3984375" customWidth="1"/>
-    <col min="12" max="12" width="108.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="107.375" customWidth="1"/>
+    <col min="12" max="12" width="108.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -2374,16 +2491,16 @@
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -2396,8 +2513,8 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>116</v>
+      <c r="I4" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>3</v>
@@ -2406,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -2419,7 +2536,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="11">
         <v>3</v>
       </c>
@@ -2440,7 +2557,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2448,12 +2565,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H7" s="5">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
@@ -2462,17 +2579,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="48" t="s">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -2481,7 +2598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>
       <c r="D9" s="37" t="s">
         <v>12</v>
@@ -2492,8 +2609,8 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>122</v>
+      <c r="I9" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -2502,7 +2619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="14">
         <v>1</v>
       </c>
@@ -2515,7 +2632,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="52"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2523,11 +2640,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2535,16 +2652,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="48" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
       <c r="D13" s="37" t="s">
         <v>12</v>
@@ -2563,8 +2680,8 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="51" t="s">
-        <v>123</v>
+      <c r="I13" s="50" t="s">
+        <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
@@ -2573,7 +2690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -2586,7 +2703,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2594,30 +2711,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="51" t="s">
-        <v>124</v>
+      <c r="I15" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="48" t="s">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2625,7 +2742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
       <c r="D17" s="37" t="s">
         <v>12</v>
@@ -2636,7 +2753,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2644,7 +2761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="5">
         <v>1</v>
       </c>
@@ -2657,8 +2774,8 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="51" t="s">
-        <v>125</v>
+      <c r="I18" s="50" t="s">
+        <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>39</v>
@@ -2667,7 +2784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -2680,7 +2797,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="53"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2688,7 +2805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -2702,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
@@ -2711,7 +2828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="7">
         <v>4</v>
       </c>
@@ -2725,7 +2842,7 @@
         <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>46</v>
@@ -2734,15 +2851,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="48" t="s">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
@@ -2751,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="5">
         <v>1</v>
       </c>
@@ -2762,7 +2879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -2773,46 +2890,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="43"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="50" t="s">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="49" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -2821,7 +2938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="5">
         <v>1</v>
       </c>
@@ -2832,7 +2949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -2843,7 +2960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" s="7">
         <v>3</v>
       </c>
@@ -2854,15 +2971,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="48" t="s">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -2871,7 +2988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="5">
         <v>1</v>
       </c>
@@ -2882,7 +2999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -2893,15 +3010,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="48" t="s">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
@@ -2910,7 +3027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -2921,15 +3038,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="48" t="s">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-    </row>
-    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+    </row>
+    <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -2938,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -2949,11 +3066,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="H1:K1"/>
@@ -2962,14 +3087,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2979,35 +3096,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScale="76" zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="45.796875" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3018,41 +3135,41 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="57" t="s">
-        <v>70</v>
+      <c r="B4" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="59"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -3063,227 +3180,235 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="H6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>77</v>
-      </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="25">
         <v>256</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>80</v>
+      <c r="G7" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F8" s="25">
         <v>256</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="67" t="s">
+        <v>131</v>
+      </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9" s="25">
         <v>256</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="25">
         <v>256</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="45" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12" s="25">
         <v>256</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F13" s="25">
         <v>256</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="32"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="67" t="s">
+        <v>133</v>
+      </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="68" t="s">
+        <v>134</v>
+      </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3294,7 +3419,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3305,7 +3430,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3316,7 +3441,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -3327,7 +3452,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3338,7 +3463,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3349,7 +3474,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3360,7 +3485,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3371,54 +3496,54 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="58"/>
       <c r="D26" s="58" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
       <c r="G26" s="58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="59"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3429,162 +3554,158 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="35" t="s">
+      <c r="H28" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="31">
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F29" s="25">
         <v>256</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>97</v>
+      <c r="G29" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>135</v>
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="31">
         <v>2</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F30" s="25">
         <v>256</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="32" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="31">
         <v>3</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F31" s="25">
         <v>256</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="32"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="67" t="s">
+        <v>137</v>
+      </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="31">
         <v>4</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F32" s="25">
         <v>256</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
-      <c r="B33" s="31">
+      <c r="B33" s="33">
         <v>5</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="32"/>
+      <c r="C33" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="68" t="s">
+        <v>133</v>
+      </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="33">
-        <v>6</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="70"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3595,41 +3716,41 @@
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="57" t="s">
-        <v>50</v>
+      <c r="B37" s="66" t="s">
+        <v>138</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="58" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
       <c r="G37" s="58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3640,118 +3761,102 @@
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="35" t="s">
+      <c r="H39" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="31">
         <v>1</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" s="25">
         <v>256</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>80</v>
+      <c r="G40" s="72" t="s">
+        <v>140</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
-      <c r="B41" s="31">
+      <c r="B41" s="33">
         <v>2</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="25">
+      <c r="C41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="71">
         <v>256</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="32" t="s">
-        <v>105</v>
+      <c r="G41" s="46"/>
+      <c r="H41" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="31">
-        <v>3</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="32"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="33">
-        <v>4</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3762,7 +3867,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3773,7 +3878,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3784,7 +3889,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3795,54 +3900,54 @@
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H49" s="56"/>
+      <c r="H49" s="62"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
-      <c r="B50" s="57" t="s">
-        <v>51</v>
+      <c r="B50" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="C50" s="58"/>
       <c r="D50" s="58" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H50" s="59"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3853,175 +3958,148 @@
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
       <c r="B52" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="35" t="s">
+      <c r="H52" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
       <c r="B53" s="31">
         <v>1</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F53" s="25">
         <v>256</v>
       </c>
-      <c r="G53" s="24" t="s">
-        <v>80</v>
+      <c r="G53" s="72" t="s">
+        <v>142</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
       <c r="B54" s="31">
         <v>2</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F54" s="25">
         <v>256</v>
       </c>
-      <c r="G54" s="24"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
-      <c r="B55" s="31">
+      <c r="B55" s="33">
         <v>3</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="25">
+      <c r="C55" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="71">
         <v>256</v>
       </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="32" t="s">
-        <v>111</v>
+      <c r="G55" s="46"/>
+      <c r="H55" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="31">
-        <v>4</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="32"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="33">
-        <v>5</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -4038,17 +4116,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4060,221 +4127,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A157" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A80" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="9.296875" customWidth="1"/>
+    <col min="1" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="64"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="64"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="64"/>
+      <c r="J131" s="64"/>
+      <c r="K131" s="64"/>
+      <c r="L131" s="64"/>
+      <c r="M131" s="64"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="64"/>
+      <c r="H132" s="64"/>
+      <c r="I132" s="64"/>
+      <c r="J132" s="64"/>
+      <c r="K132" s="64"/>
+      <c r="L132" s="64"/>
+      <c r="M132" s="64"/>
+    </row>
+    <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A79" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="63"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="63"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A105" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="63"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="63"/>
-      <c r="L105" s="63"/>
-      <c r="M105" s="63"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A106" s="63"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="63"/>
-      <c r="K106" s="63"/>
-      <c r="L106" s="63"/>
-      <c r="M106" s="63"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A131" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="63"/>
-      <c r="K131" s="63"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="63"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A132" s="63"/>
-      <c r="B132" s="63"/>
-      <c r="C132" s="63"/>
-      <c r="D132" s="63"/>
-      <c r="E132" s="63"/>
-      <c r="F132" s="63"/>
-      <c r="G132" s="63"/>
-      <c r="H132" s="63"/>
-      <c r="I132" s="63"/>
-      <c r="J132" s="63"/>
-      <c r="K132" s="63"/>
-      <c r="L132" s="63"/>
-      <c r="M132" s="63"/>
-    </row>
-    <row r="133" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="64"/>
-      <c r="J133" s="64"/>
-      <c r="K133" s="64"/>
-      <c r="L133" s="64"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="65"/>
+      <c r="J133" s="65"/>
+      <c r="K133" s="65"/>
+      <c r="L133" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4301,57 +4368,57 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4372,7 +4439,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/その他/設計書.xlsx
+++ b/その他/設計書.xlsx
@@ -1601,23 +1601,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1627,21 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1895,6 +1895,446 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>224696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="https://cdn.discordapp.com/attachments/750214324618002485/766469774795341844/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8965" y="37051708"/>
+          <a:ext cx="8780929" cy="4822434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="https://cdn.discordapp.com/attachments/750214324618002485/766469707137155093/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="41833800"/>
+          <a:ext cx="7467600" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10" descr="https://cdn.discordapp.com/attachments/750214324618002485/766469040477700096/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="48006000"/>
+          <a:ext cx="8305800" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="https://cdn.discordapp.com/attachments/750214324618002485/766470504894038026/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="53949600"/>
+          <a:ext cx="8534400" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12" descr="https://cdn.discordapp.com/attachments/750214324618002485/766470568773287946/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="59893200"/>
+          <a:ext cx="8382000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13" descr="https://cdn.discordapp.com/attachments/750214324618002485/766470622666031114/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="66294000"/>
+          <a:ext cx="7543800" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14" descr="https://cdn.discordapp.com/attachments/750214324618002485/766469421900234773/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="71551800"/>
+          <a:ext cx="9296400" cy="5410200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15" descr="https://cdn.discordapp.com/attachments/750214324618002485/766469521467768862/unknown.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="78409800"/>
+          <a:ext cx="6629400" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2344,21 +2784,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -2396,7 +2836,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2419,7 +2859,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2880,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2463,11 +2903,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -2492,7 +2932,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2515,7 +2955,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="52"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2527,7 +2967,7 @@
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2536,15 +2976,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +3003,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="49" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2586,7 +3026,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2598,7 +3038,7 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="49" t="s">
         <v>124</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2609,15 +3049,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2636,7 +3076,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2657,7 +3097,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="49" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2680,7 +3120,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="53"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2736,11 +3176,11 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
@@ -2790,27 +3230,27 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:11" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="2"/>
@@ -2856,11 +3296,11 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2"/>
@@ -2895,11 +3335,11 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2"/>
@@ -2923,11 +3363,11 @@
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
@@ -2954,6 +3394,14 @@
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="H1:K1"/>
@@ -2962,14 +3410,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,17 +3431,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -3020,36 +3460,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3372,50 +3812,50 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55" t="s">
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3597,36 +4037,36 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55" t="s">
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58" t="s">
+      <c r="C37" s="57"/>
+      <c r="D37" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,50 +4236,50 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55" t="s">
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="56"/>
+      <c r="H49" s="61"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -4022,6 +4462,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -4038,17 +4489,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4060,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A157" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A155" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L362" sqref="L362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4307,51 +4747,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/その他/設計書.xlsx
+++ b/その他/設計書.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -1216,6 +1216,10 @@
   </si>
   <si>
     <t>投稿タグテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sssssssssssssssssssssssssssss</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1688,12 +1692,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,11 +1737,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1721,21 +1764,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,30 +1772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2394,38 +2398,38 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2461,21 +2465,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -2513,7 +2517,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="59" t="s">
         <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2536,7 +2540,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="51"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2580,11 +2584,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -2609,7 +2613,7 @@
       <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="59" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2632,7 +2636,7 @@
       <c r="H10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2648,7 @@
       <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="I11" s="51"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2653,15 +2657,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="H12" s="5">
         <v>9</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2680,7 +2684,7 @@
       <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="59" t="s">
         <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2703,7 +2707,7 @@
       <c r="H14" s="5">
         <v>11</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="59" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2726,15 +2730,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="H16" s="5">
         <v>13</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2753,7 +2757,7 @@
       <c r="H17" s="5">
         <v>14</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2774,7 +2778,7 @@
       <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="59" t="s">
         <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2797,7 +2801,7 @@
       <c r="H19" s="5">
         <v>16</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2853,11 +2857,11 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
@@ -2907,27 +2911,27 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="2"/>
@@ -2973,11 +2977,11 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="2"/>
@@ -3012,11 +3016,11 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2"/>
@@ -3040,11 +3044,11 @@
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2"/>
@@ -3071,6 +3075,14 @@
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
@@ -3079,14 +3091,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3099,7 +3103,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScale="76" zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3108,17 +3112,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -3137,36 +3141,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="62"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3222,7 +3226,7 @@
       <c r="F7" s="25">
         <v>256</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="52" t="s">
         <v>141</v>
       </c>
       <c r="H7" s="45" t="s">
@@ -3247,8 +3251,8 @@
       <c r="F8" s="25">
         <v>256</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="67" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="47" t="s">
         <v>131</v>
       </c>
       <c r="I8" s="23"/>
@@ -3270,7 +3274,7 @@
       <c r="F9" s="25">
         <v>256</v>
       </c>
-      <c r="G9" s="73"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="45" t="s">
         <v>81</v>
       </c>
@@ -3293,7 +3297,7 @@
       <c r="F10" s="25">
         <v>256</v>
       </c>
-      <c r="G10" s="73"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="45" t="s">
         <v>109</v>
       </c>
@@ -3314,8 +3318,8 @@
         <v>84</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="67" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="47" t="s">
         <v>132</v>
       </c>
       <c r="I11" s="23"/>
@@ -3337,7 +3341,7 @@
       <c r="F12" s="25">
         <v>256</v>
       </c>
-      <c r="G12" s="73"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="45" t="s">
         <v>86</v>
       </c>
@@ -3360,7 +3364,7 @@
       <c r="F13" s="25">
         <v>256</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="45" t="s">
         <v>89</v>
       </c>
@@ -3381,8 +3385,8 @@
         <v>84</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="67" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="47" t="s">
         <v>133</v>
       </c>
       <c r="I14" s="23"/>
@@ -3403,7 +3407,7 @@
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="48" t="s">
         <v>134</v>
       </c>
       <c r="I15" s="23"/>
@@ -3497,50 +3501,50 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3596,10 +3600,10 @@
       <c r="F29" s="25">
         <v>256</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="47" t="s">
         <v>135</v>
       </c>
       <c r="I29" s="23"/>
@@ -3621,7 +3625,7 @@
       <c r="F30" s="25">
         <v>256</v>
       </c>
-      <c r="G30" s="73"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="32" t="s">
         <v>136</v>
       </c>
@@ -3644,8 +3648,8 @@
       <c r="F31" s="25">
         <v>256</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="67" t="s">
+      <c r="G31" s="53"/>
+      <c r="H31" s="47" t="s">
         <v>137</v>
       </c>
       <c r="I31" s="23"/>
@@ -3667,7 +3671,7 @@
       <c r="F32" s="25">
         <v>256</v>
       </c>
-      <c r="G32" s="73"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="32" t="s">
         <v>96</v>
       </c>
@@ -3689,20 +3693,20 @@
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="46"/>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="48" t="s">
         <v>133</v>
       </c>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="69"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="70"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3718,36 +3722,36 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="62"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3803,7 +3807,7 @@
       <c r="F40" s="25">
         <v>256</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="52" t="s">
         <v>140</v>
       </c>
       <c r="H40" s="32" t="s">
@@ -3825,7 +3829,7 @@
       <c r="E41" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="51">
         <v>256</v>
       </c>
       <c r="G41" s="46"/>
@@ -3836,22 +3840,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="69"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="69"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="69"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="69"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
@@ -3901,50 +3905,50 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61" t="s">
+      <c r="C49" s="63"/>
+      <c r="D49" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="62"/>
+      <c r="H49" s="64"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58" t="s">
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="67"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4000,7 +4004,7 @@
       <c r="F53" s="25">
         <v>256</v>
       </c>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="52" t="s">
         <v>142</v>
       </c>
       <c r="H53" s="32" t="s">
@@ -4025,7 +4029,7 @@
       <c r="F54" s="25">
         <v>256</v>
       </c>
-      <c r="G54" s="73"/>
+      <c r="G54" s="53"/>
       <c r="H54" s="32" t="s">
         <v>103</v>
       </c>
@@ -4045,7 +4049,7 @@
       <c r="E55" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="51">
         <v>256</v>
       </c>
       <c r="G55" s="46"/>
@@ -4066,7 +4070,9 @@
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
+      <c r="A57" s="23" t="s">
+        <v>144</v>
+      </c>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -4089,17 +4095,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
@@ -4116,6 +4111,17 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4137,211 +4143,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="64"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
+      <c r="L80" s="72"/>
+      <c r="M80" s="72"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" s="63" t="s">
+      <c r="A105" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="72"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
+      <c r="A106" s="72"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="72"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" s="63" t="s">
+      <c r="A131" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="64"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="64"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="72"/>
+      <c r="M131" s="72"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="64"/>
-      <c r="J132" s="64"/>
-      <c r="K132" s="64"/>
-      <c r="L132" s="64"/>
-      <c r="M132" s="64"/>
+      <c r="A132" s="72"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="72"/>
+      <c r="M132" s="72"/>
     </row>
     <row r="133" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="65" t="s">
+      <c r="B133" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65"/>
-      <c r="I133" s="65"/>
-      <c r="J133" s="65"/>
-      <c r="K133" s="65"/>
-      <c r="L133" s="65"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="73"/>
+      <c r="L133" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4374,51 +4380,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
